--- a/biology/Zoologie/Écaille_cramoisie/Écaille_cramoisie.xlsx
+++ b/biology/Zoologie/Écaille_cramoisie/Écaille_cramoisie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89caille_cramoisie</t>
+          <t>Écaille_cramoisie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phragmatobia fuliginosa
 L’Écaille cramoisie (Phragmatobia fuliginosa) est une espèce holarctique de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89caille_cramoisie</t>
+          <t>Écaille_cramoisie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89caille_cramoisie</t>
+          <t>Écaille_cramoisie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,9 +552,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phragmatobia fuliginosa est répandue dans l'écozone paléarctique : on la trouve dans la majeure partie de l'Europe, en Afrique du Nord, en Russie, en Asie centrale et au Tibet. Elle est également présente dans le Nord de l'Amérique du Nord[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phragmatobia fuliginosa est répandue dans l'écozone paléarctique : on la trouve dans la majeure partie de l'Europe, en Afrique du Nord, en Russie, en Asie centrale et au Tibet. Elle est également présente dans le Nord de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89caille_cramoisie</t>
+          <t>Écaille_cramoisie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,11 +587,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phénologie
-L'imago vole de la mi-avril à octobre. 
+          <t>Phénologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole de la mi-avril à octobre. 
 L'espèce a deux ou trois générations par an, et hiverne au stade de chenille mature, à l'abri dans la végétation près du sol.
-Plantes hôtes
-La chenille se nourrit sur divers végétaux : patiences, pissenlit, myosotis, achillée millefeuille, etc.
 </t>
         </is>
       </c>
@@ -586,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89caille_cramoisie</t>
+          <t>Écaille_cramoisie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,19 +620,58 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit sur divers végétaux : patiences, pissenlit, myosotis, achillée millefeuille, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écaille_cramoisie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89caille_cramoisie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On distingue plusieurs sous-espèces[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On distingue plusieurs sous-espèces :
 Phragmatobia fuliginosa fuliginosa (Linnaeus, 1758)
 Phragmatobia fuliginosa rubricosa (Harris, 1841)
 Phragmatobia fuliginosa borealis (Staudinger, 1871)
 Phragmatobia fuliginosa pulverulenta (Alphéraky, 1889)
 Phragmatobia fuliginosa meridionalis Tutt, 1904
 Phragmatobia fuliginosa kroumira Oberthür, 1917
-Phragmatobia fuliginosa melitensis Bang-Haas, 1927 : seul lépidoptère endémique de l'archipel maltais[2]
+Phragmatobia fuliginosa melitensis Bang-Haas, 1927 : seul lépidoptère endémique de l'archipel maltais
 Phragmatobia fuliginosa meridionalis (Tutt, 1904)
 Phragmatobia fuliginosa paghmani Lének, 1966 
 Phragmatobia fuliginosa taurica Daniel, 1970
